--- a/medicine/Handicap/Pauline_Déroulède/Pauline_Déroulède.xlsx
+++ b/medicine/Handicap/Pauline_Déroulède/Pauline_Déroulède.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pauline_D%C3%A9roul%C3%A8de</t>
+          <t>Pauline_Déroulède</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Pauline Déroulède, née le 30 décembre 1990 à Paris, est une joueuse de tennis handisport française, professionnelle depuis 2019, et militante de la sécurité routière.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pauline_D%C3%A9roul%C3%A8de</t>
+          <t>Pauline_Déroulède</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pauline Déroulède est victime d'un accident de la route le 27 octobre 2018 alors qu'elle était en scooter à l'arrêt sur un trottoir, percutée par un conducteur âgé de 92 ans[1]. Sa jambe gauche est amputée[2],[3].
-Après son accident, Pauline Déroulède devient joueuse professionnelle de tennis en fauteuil et conférencière. Elle milite non seulement pour la reconnaissance des personnes handicapées en participant à des émissions de télévision (notamment Un air d'Enfoirés[4] ou la saison 10 de Danse avec les stars[5]) mais également pour l'obligation des personnes âgées de passer des contrôles d'aptitude à la conduite[6],[7]. Auparavant, elle a exercé pendant une quinzaine d'années dans la production audiovisuelle et a aussi été professeure de tennis[8].
-Championne de France en 2021, elle fait ses débuts en Grand Chelem avec une invitation lors de l'US Open en 2022[9].
-Elle est candidate aux élections sénatoriales de 2023 sur la liste du dissident LR Pierre Charon[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pauline Déroulède est victime d'un accident de la route le 27 octobre 2018 alors qu'elle était en scooter à l'arrêt sur un trottoir, percutée par un conducteur âgé de 92 ans. Sa jambe gauche est amputée,.
+Après son accident, Pauline Déroulède devient joueuse professionnelle de tennis en fauteuil et conférencière. Elle milite non seulement pour la reconnaissance des personnes handicapées en participant à des émissions de télévision (notamment Un air d'Enfoirés ou la saison 10 de Danse avec les stars) mais également pour l'obligation des personnes âgées de passer des contrôles d'aptitude à la conduite,. Auparavant, elle a exercé pendant une quinzaine d'années dans la production audiovisuelle et a aussi été professeure de tennis.
+Championne de France en 2021, elle fait ses débuts en Grand Chelem avec une invitation lors de l'US Open en 2022.
+Elle est candidate aux élections sénatoriales de 2023 sur la liste du dissident LR Pierre Charon.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pauline_D%C3%A9roul%C3%A8de</t>
+          <t>Pauline_Déroulède</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est la compagne de Typhaine Lacroix[11] qui donne naissance à leur enfant en 2022. Elle est une descendante de Paul Déroulède[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est la compagne de Typhaine Lacroix qui donne naissance à leur enfant en 2022. Elle est une descendante de Paul Déroulède.
 </t>
         </is>
       </c>
